--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Config.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\balloonbattle\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\balloonbattle_2nd\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B10B0-75BA-48FD-B443-EB357710BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47BCF3-7485-418E-88AA-8AAC103C963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1425" windowWidth="25935" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="1290" windowWidth="23940" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{CA862E93-4A05-47E6-9AF4-4FEAA34CA228}">
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{D728A549-3069-49AD-BDF6-55CFAC444104}">
       <text>
         <r>
           <rPr>
@@ -1361,30 +1361,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>다이아</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
           <t>비용</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{202D3142-07BC-4728-A20F-89C78921ED6F}">
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{CA862E93-4A05-47E6-9AF4-4FEAA34CA228}">
       <text>
         <r>
           <rPr>
@@ -1414,6 +1395,97 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>닉네임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="2" shapeId="0" xr:uid="{76AB7202-259A-40F4-907E-403AA021C71E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Balloon01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>튜토리얼</t>
         </r>
         <r>
@@ -1452,7 +1524,60 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>다이아</t>
+          <t>보상</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="2" shapeId="0" xr:uid="{202D3142-07BC-4728-A20F-89C78921ED6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Balloon01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>튜토리얼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -2926,7 +3051,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>BattleDurationSec</t>
   </si>
@@ -2958,18 +3083,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ChangeNickCostDia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ChangeNickFreeCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TutorialRewardDia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BattleOneOnOneDurationSec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3117,6 +3234,42 @@
   </si>
   <si>
     <t>1vs1을 제외한 나머지 멀티 플레이 제한 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeNickCostType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeNickCostValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialRewardType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialRewardValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxTicket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleCostType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleCostValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ticket</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3676,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3695,16 +3848,21 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="13" max="13" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.625" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3731,16 +3889,31 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>180</v>
       </c>
@@ -3774,11 +3947,26 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>60</v>
+      <c r="L2" t="s">
+        <v>50</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>5000</v>
+      </c>
+      <c r="P2">
+        <v>200</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3818,219 +4006,219 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
